--- a/prices.xlsx
+++ b/prices.xlsx
@@ -546,13 +546,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>82.04806456307691</v>
+        <v>82.04806456845782</v>
       </c>
       <c r="C2">
-        <v>327.3497551386312</v>
+        <v>327.3497551385488</v>
       </c>
       <c r="D2">
-        <v>116.4752951659259</v>
+        <v>116.475295167526</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -560,13 +560,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>48.60033819810857</v>
+        <v>48.60033819812769</v>
       </c>
       <c r="C3">
-        <v>69.17022349062538</v>
+        <v>69.17022349274323</v>
       </c>
       <c r="D3">
-        <v>103.4639013222722</v>
+        <v>103.463901322661</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -574,13 +574,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>87.61025164986395</v>
+        <v>87.61025164698272</v>
       </c>
       <c r="C4">
-        <v>75.76981664146182</v>
+        <v>75.7698166426712</v>
       </c>
       <c r="D4">
-        <v>56.67821971644192</v>
+        <v>56.67821971824216</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -588,13 +588,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>48.42128357237666</v>
+        <v>48.42128356716646</v>
       </c>
       <c r="C5">
-        <v>42.03236470769673</v>
+        <v>42.03236471945073</v>
       </c>
       <c r="D5">
-        <v>31.84326588467563</v>
+        <v>31.84326590120061</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -602,13 +602,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>52.89296398326804</v>
+        <v>52.89296398580571</v>
       </c>
       <c r="C6">
-        <v>109.705155541114</v>
+        <v>109.7051555476061</v>
       </c>
       <c r="D6">
-        <v>191.0115180248546</v>
+        <v>191.0115180236326</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -616,13 +616,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>83.60063098426463</v>
+        <v>83.60063098104867</v>
       </c>
       <c r="C7">
-        <v>67.37803608214794</v>
+        <v>67.37803608571244</v>
       </c>
       <c r="D7">
-        <v>55.39636862299103</v>
+        <v>55.39636862081918</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -630,13 +630,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>82.68040676421302</v>
+        <v>82.68040676905174</v>
       </c>
       <c r="C8">
-        <v>99.72816851618741</v>
+        <v>99.72816850801055</v>
       </c>
       <c r="D8">
-        <v>115.6194152933029</v>
+        <v>115.6194152926671</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -644,13 +644,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>59.0089619879906</v>
+        <v>59.00896199891064</v>
       </c>
       <c r="C9">
-        <v>104.3363570719734</v>
+        <v>104.3363570754599</v>
       </c>
       <c r="D9">
-        <v>161.3917575378275</v>
+        <v>161.391757546722</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -658,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>49.89261522569881</v>
+        <v>49.89261522912443</v>
       </c>
       <c r="C10">
-        <v>63.09417941801638</v>
+        <v>63.09417940669125</v>
       </c>
       <c r="D10">
-        <v>41.25690617506923</v>
+        <v>41.25690615687446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -672,13 +672,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>78.14016481704074</v>
+        <v>78.14016481194129</v>
       </c>
       <c r="C11">
-        <v>68.92533760644037</v>
+        <v>68.92533762733306</v>
       </c>
       <c r="D11">
-        <v>66.94093787019746</v>
+        <v>66.94093786103427</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -686,13 +686,13 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>66.29728607155906</v>
+        <v>66.29728607540214</v>
       </c>
       <c r="C12">
-        <v>66.60919866008912</v>
+        <v>66.60919866426724</v>
       </c>
       <c r="D12">
-        <v>47.08654195683037</v>
+        <v>47.08654195663468</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -700,13 +700,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>76.95947381239547</v>
+        <v>76.9594738181966</v>
       </c>
       <c r="C13">
-        <v>63.29327075779193</v>
+        <v>63.29327076558574</v>
       </c>
       <c r="D13">
-        <v>51.92258753011134</v>
+        <v>51.92258749242794</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -714,13 +714,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>57.45335991776749</v>
+        <v>57.45335993786721</v>
       </c>
       <c r="C14">
-        <v>60.6508817850318</v>
+        <v>60.65088179047609</v>
       </c>
       <c r="D14">
-        <v>58.25619438899361</v>
+        <v>58.2561943933752</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -728,13 +728,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>66.6945992509327</v>
+        <v>66.6945992289681</v>
       </c>
       <c r="C15">
-        <v>64.31241493386398</v>
+        <v>64.31241493539615</v>
       </c>
       <c r="D15">
-        <v>45.77831201957272</v>
+        <v>45.77831201152495</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -742,13 +742,13 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>90.86081141124306</v>
+        <v>90.86081140960243</v>
       </c>
       <c r="C16">
-        <v>81.13715613137795</v>
+        <v>81.13715613873099</v>
       </c>
       <c r="D16">
-        <v>78.22970015801606</v>
+        <v>78.22970014847603</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>83.06906241712819</v>
+        <v>83.06906243187478</v>
       </c>
       <c r="C17">
-        <v>78.57399814727293</v>
+        <v>78.57399815672555</v>
       </c>
       <c r="D17">
-        <v>71.86847121488165</v>
+        <v>71.86847120962653</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -770,13 +770,13 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>79.74539239211806</v>
+        <v>79.7453923675431</v>
       </c>
       <c r="C18">
-        <v>70.74230949822426</v>
+        <v>70.74230949305235</v>
       </c>
       <c r="D18">
-        <v>53.46568312970526</v>
+        <v>53.46568314234568</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -784,13 +784,13 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>76.73724639553045</v>
+        <v>76.73724639731087</v>
       </c>
       <c r="C19">
-        <v>63.63588593899846</v>
+        <v>63.6358859405704</v>
       </c>
       <c r="D19">
-        <v>52.7675191019663</v>
+        <v>52.76751909769849</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -798,13 +798,13 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>80.96988586818478</v>
+        <v>80.9698858842399</v>
       </c>
       <c r="C20">
-        <v>108.7305924198652</v>
+        <v>108.7305924227169</v>
       </c>
       <c r="D20">
-        <v>65.57417498526952</v>
+        <v>65.57417498805739</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -812,13 +812,13 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>64.66235045047672</v>
+        <v>64.66235045483207</v>
       </c>
       <c r="C21">
-        <v>53.43413780065974</v>
+        <v>53.43413784529768</v>
       </c>
       <c r="D21">
-        <v>42.92087969603791</v>
+        <v>42.92087970685267</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -826,13 +826,13 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>44.29245259693607</v>
+        <v>44.29245260144963</v>
       </c>
       <c r="C22">
-        <v>172.7843071021591</v>
+        <v>172.7843071018206</v>
       </c>
       <c r="D22">
-        <v>302.442389290867</v>
+        <v>302.4423892934705</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -840,13 +840,13 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>85.01284704620555</v>
+        <v>85.01284704513016</v>
       </c>
       <c r="C23">
-        <v>70.14238479241483</v>
+        <v>70.14238479930737</v>
       </c>
       <c r="D23">
-        <v>61.50805912336169</v>
+        <v>61.50805911785599</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -854,13 +854,13 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>62.06160569094489</v>
+        <v>62.06160569928933</v>
       </c>
       <c r="C24">
-        <v>52.7677481942677</v>
+        <v>52.76774823617676</v>
       </c>
       <c r="D24">
-        <v>40.85984654682594</v>
+        <v>40.85984654462025</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -868,13 +868,13 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>73.01146330467378</v>
+        <v>73.01146330072601</v>
       </c>
       <c r="C25">
-        <v>67.509105759736</v>
+        <v>67.50910575525948</v>
       </c>
       <c r="D25">
-        <v>50.41300773117695</v>
+        <v>50.41300772805465</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -882,13 +882,13 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>78.58829923212487</v>
+        <v>78.58829923857603</v>
       </c>
       <c r="C26">
-        <v>69.23450606057331</v>
+        <v>69.2345060735295</v>
       </c>
       <c r="D26">
-        <v>56.54946974424008</v>
+        <v>56.54946975746716</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -896,13 +896,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>71.38641632439453</v>
+        <v>71.38641632077719</v>
       </c>
       <c r="C27">
-        <v>70.75054088076388</v>
+        <v>70.75054087698172</v>
       </c>
       <c r="D27">
-        <v>70.19078730872741</v>
+        <v>70.19078729846773</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -910,13 +910,13 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>61.91246114572152</v>
+        <v>61.9124611539152</v>
       </c>
       <c r="C28">
-        <v>75.01009945566004</v>
+        <v>75.01009946520038</v>
       </c>
       <c r="D28">
-        <v>55.79124181566665</v>
+        <v>55.79124181940526</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -924,13 +924,13 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>61.20675328024848</v>
+        <v>61.20675328079121</v>
       </c>
       <c r="C29">
-        <v>130.8418706822185</v>
+        <v>130.841870675439</v>
       </c>
       <c r="D29">
-        <v>217.8871436581618</v>
+        <v>217.8871436536449</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -938,13 +938,13 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>60.51103969341923</v>
+        <v>60.51103969818725</v>
       </c>
       <c r="C30">
-        <v>54.69917354989762</v>
+        <v>54.69917355077082</v>
       </c>
       <c r="D30">
-        <v>44.11137287590442</v>
+        <v>44.11137287023177</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -952,13 +952,13 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>66.8490767078918</v>
+        <v>66.84907670214251</v>
       </c>
       <c r="C31">
-        <v>55.4967868814039</v>
+        <v>55.49678689479664</v>
       </c>
       <c r="D31">
-        <v>43.74461054462068</v>
+        <v>43.74461054020728</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -966,13 +966,13 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>112.2658094611736</v>
+        <v>112.2658094657632</v>
       </c>
       <c r="C32">
-        <v>93.17250837124438</v>
+        <v>93.1725083679647</v>
       </c>
       <c r="D32">
-        <v>70.01086819812477</v>
+        <v>70.01086819209874</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -980,13 +980,13 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>71.73761163186026</v>
+        <v>71.73761163822698</v>
       </c>
       <c r="C33">
-        <v>65.86284367384565</v>
+        <v>65.86284367140837</v>
       </c>
       <c r="D33">
-        <v>48.12701353738115</v>
+        <v>48.12701354193664</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -994,13 +994,13 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>70.24314631967238</v>
+        <v>70.24314629259149</v>
       </c>
       <c r="C34">
-        <v>60.01447117859584</v>
+        <v>60.01447119296037</v>
       </c>
       <c r="D34">
-        <v>52.23720995863701</v>
+        <v>52.23720997479359</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>47.41498280116292</v>
+        <v>47.41498280487147</v>
       </c>
       <c r="C35">
-        <v>61.50126921590356</v>
+        <v>61.5012692186252</v>
       </c>
       <c r="D35">
-        <v>86.64951025018706</v>
+        <v>86.6495102452229</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>65.37713676174215</v>
+        <v>65.37713676586937</v>
       </c>
       <c r="C36">
-        <v>66.0609214509187</v>
+        <v>66.0609214517104</v>
       </c>
       <c r="D36">
-        <v>44.91507236130494</v>
+        <v>44.91507236648621</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>99.24600589291462</v>
+        <v>99.24600584969299</v>
       </c>
       <c r="C37">
-        <v>80.02758931478351</v>
+        <v>80.02758936877184</v>
       </c>
       <c r="D37">
-        <v>61.91828512477733</v>
+        <v>61.91828511074937</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>51.42130081194301</v>
+        <v>51.42130080912482</v>
       </c>
       <c r="C38">
-        <v>57.98235122740225</v>
+        <v>57.98235123260719</v>
       </c>
       <c r="D38">
-        <v>42.68275547210713</v>
+        <v>42.68275547240027</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>91.88727827304322</v>
+        <v>91.8872782970259</v>
       </c>
       <c r="C39">
-        <v>76.65426623044517</v>
+        <v>76.65426623924088</v>
       </c>
       <c r="D39">
-        <v>58.50341632559827</v>
+        <v>58.5034163371292</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>81.67014529632905</v>
+        <v>81.670145288662</v>
       </c>
       <c r="C40">
-        <v>66.14023600865549</v>
+        <v>66.14023603854152</v>
       </c>
       <c r="D40">
-        <v>56.33944392514598</v>
+        <v>56.33944391586104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1092,13 +1092,13 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>88.96991467022146</v>
+        <v>88.96991466512718</v>
       </c>
       <c r="C41">
-        <v>76.38109260940446</v>
+        <v>76.3810926585607</v>
       </c>
       <c r="D41">
-        <v>71.8540248382298</v>
+        <v>71.85402484436426</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1106,13 +1106,13 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>53.73148173714511</v>
+        <v>53.7314817229153</v>
       </c>
       <c r="C42">
-        <v>78.65426933732654</v>
+        <v>78.65426930298567</v>
       </c>
       <c r="D42">
-        <v>121.5456440698744</v>
+        <v>121.5456439829372</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1120,13 +1120,13 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>84.64837077438524</v>
+        <v>84.6483707679166</v>
       </c>
       <c r="C43">
-        <v>71.29518024900553</v>
+        <v>71.29518024603948</v>
       </c>
       <c r="D43">
-        <v>56.21844687852624</v>
+        <v>56.21844688387372</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1134,13 +1134,13 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>60.43365119044689</v>
+        <v>60.43365120910767</v>
       </c>
       <c r="C44">
-        <v>50.51452244991097</v>
+        <v>50.5145224576391</v>
       </c>
       <c r="D44">
-        <v>39.72372602637766</v>
+        <v>39.72372603185499</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1148,13 +1148,13 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>125.793247727479</v>
+        <v>125.7932477361082</v>
       </c>
       <c r="C45">
-        <v>110.1091879459369</v>
+        <v>110.1091879358491</v>
       </c>
       <c r="D45">
-        <v>109.8665835895061</v>
+        <v>109.8665836183445</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1162,13 +1162,13 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>69.71385527865141</v>
+        <v>69.71385525452021</v>
       </c>
       <c r="C46">
-        <v>164.2624529422259</v>
+        <v>164.2624528940391</v>
       </c>
       <c r="D46">
-        <v>307.3643201753389</v>
+        <v>307.3643201546022</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>44.21332435253571</v>
+        <v>44.21332436610204</v>
       </c>
       <c r="C47">
-        <v>78.68108969460161</v>
+        <v>78.68108969505248</v>
       </c>
       <c r="D47">
-        <v>63.25346883352434</v>
+        <v>63.2534688276417</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>88.01123273964386</v>
+        <v>88.01123273838064</v>
       </c>
       <c r="C48">
-        <v>76.78407662795583</v>
+        <v>76.78407662757471</v>
       </c>
       <c r="D48">
-        <v>57.5471023662417</v>
+        <v>57.54710236704804</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>91.44033877766988</v>
+        <v>91.44033866546944</v>
       </c>
       <c r="C49">
-        <v>70.15915544744286</v>
+        <v>70.15915544543492</v>
       </c>
       <c r="D49">
-        <v>58.15989430535003</v>
+        <v>58.15989420303804</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>LFP batteries</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>NCA batteries</t>
+  </si>
+  <si>
+    <t>Electric vehicles</t>
   </si>
   <si>
     <t>AT</t>
@@ -524,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,677 +543,824 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>82.04806456845782</v>
+        <v>82.04806456915593</v>
       </c>
       <c r="C2">
-        <v>327.3497551385488</v>
+        <v>327.3497551387292</v>
       </c>
       <c r="D2">
-        <v>116.475295167526</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>116.4752951646654</v>
+      </c>
+      <c r="E2">
+        <v>1.380868035393664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>48.60033819812769</v>
+        <v>48.60033819929398</v>
       </c>
       <c r="C3">
-        <v>69.17022349274323</v>
+        <v>69.17022349195599</v>
       </c>
       <c r="D3">
-        <v>103.463901322661</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>103.4639013228365</v>
+      </c>
+      <c r="E3">
+        <v>1.450414280157376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>87.61025164698272</v>
+        <v>87.6102516467644</v>
       </c>
       <c r="C4">
-        <v>75.7698166426712</v>
+        <v>75.76981663827823</v>
       </c>
       <c r="D4">
-        <v>56.67821971824216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>56.67821971573601</v>
+      </c>
+      <c r="E4">
+        <v>1.34585290145282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>48.42128356716646</v>
+        <v>48.42128356501244</v>
       </c>
       <c r="C5">
-        <v>42.03236471945073</v>
+        <v>42.03236471926424</v>
       </c>
       <c r="D5">
-        <v>31.84326590120061</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>31.8432658972324</v>
+      </c>
+      <c r="E5">
+        <v>1.254578314349315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>52.89296398580571</v>
+        <v>52.8929639844588</v>
       </c>
       <c r="C6">
-        <v>109.7051555476061</v>
+        <v>109.7051555476158</v>
       </c>
       <c r="D6">
-        <v>191.0115180236326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>191.0115180238443</v>
+      </c>
+      <c r="E6">
+        <v>1.269015585427002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>83.60063098104867</v>
+        <v>83.60063098093985</v>
       </c>
       <c r="C7">
-        <v>67.37803608571244</v>
+        <v>67.37803608001681</v>
       </c>
       <c r="D7">
-        <v>55.39636862081918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>55.39636862217629</v>
+      </c>
+      <c r="E7">
+        <v>1.223823485316817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>82.68040676905174</v>
+        <v>82.68040676348892</v>
       </c>
       <c r="C8">
-        <v>99.72816850801055</v>
+        <v>99.72816849670903</v>
       </c>
       <c r="D8">
-        <v>115.6194152926671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>115.6194152920906</v>
+      </c>
+      <c r="E8">
+        <v>1.161530650098613</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>59.00896199891064</v>
+        <v>59.00896199696546</v>
       </c>
       <c r="C9">
-        <v>104.3363570754599</v>
+        <v>104.3363570807924</v>
       </c>
       <c r="D9">
-        <v>161.391757546722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>161.3917575401821</v>
+      </c>
+      <c r="E9">
+        <v>1.435739843255707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>49.89261522912443</v>
+        <v>49.89261522907875</v>
       </c>
       <c r="C10">
-        <v>63.09417940669125</v>
+        <v>63.0941794406285</v>
       </c>
       <c r="D10">
-        <v>41.25690615687446</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>41.25690615890139</v>
+      </c>
+      <c r="E10">
+        <v>1.4117938933205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>78.14016481194129</v>
+        <v>78.14016481625417</v>
       </c>
       <c r="C11">
-        <v>68.92533762733306</v>
+        <v>68.92533762570977</v>
       </c>
       <c r="D11">
-        <v>66.94093786103427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>66.94093785866185</v>
+      </c>
+      <c r="E11">
+        <v>1.30596207018998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>66.29728607540214</v>
+        <v>66.29728608382229</v>
       </c>
       <c r="C12">
-        <v>66.60919866426724</v>
+        <v>66.60919866973853</v>
       </c>
       <c r="D12">
-        <v>47.08654195663468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>47.08654195276419</v>
+      </c>
+      <c r="E12">
+        <v>1.360050566271314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>76.9594738181966</v>
+        <v>76.95947381059675</v>
       </c>
       <c r="C13">
-        <v>63.29327076558574</v>
+        <v>63.29327080530929</v>
       </c>
       <c r="D13">
-        <v>51.92258749242794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>51.9225875104278</v>
+      </c>
+      <c r="E13">
+        <v>1.430836547511826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>57.45335993786721</v>
+        <v>57.4533599137877</v>
       </c>
       <c r="C14">
-        <v>60.65088179047609</v>
+        <v>60.65088178049383</v>
       </c>
       <c r="D14">
-        <v>58.2561943933752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>58.25619439339946</v>
+      </c>
+      <c r="E14">
+        <v>1.191026855726921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>66.6945992289681</v>
+        <v>66.69459924762178</v>
       </c>
       <c r="C15">
-        <v>64.31241493539615</v>
+        <v>64.31241493974863</v>
       </c>
       <c r="D15">
-        <v>45.77831201152495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>45.77831202561789</v>
+      </c>
+      <c r="E15">
+        <v>1.322739589276495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>90.86081140960243</v>
+        <v>90.86081140330951</v>
       </c>
       <c r="C16">
-        <v>81.13715613873099</v>
+        <v>81.13715613551038</v>
       </c>
       <c r="D16">
-        <v>78.22970014847603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>78.22970015037319</v>
+      </c>
+      <c r="E16">
+        <v>1.522822227813987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>83.06906243187478</v>
+        <v>83.06906242785416</v>
       </c>
       <c r="C17">
-        <v>78.57399815672555</v>
+        <v>78.57399813646856</v>
       </c>
       <c r="D17">
-        <v>71.86847120962653</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>71.868471214359</v>
+      </c>
+      <c r="E17">
+        <v>1.340955335948286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>79.7453923675431</v>
+        <v>79.74539237949827</v>
       </c>
       <c r="C18">
-        <v>70.74230949305235</v>
+        <v>70.74230950975424</v>
       </c>
       <c r="D18">
-        <v>53.46568314234568</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>53.46568313964421</v>
+      </c>
+      <c r="E18">
+        <v>1.279964238946928</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>76.73724639731087</v>
+        <v>76.73724638593237</v>
       </c>
       <c r="C19">
-        <v>63.6358859405704</v>
+        <v>63.63588594357215</v>
       </c>
       <c r="D19">
-        <v>52.76751909769849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>52.76751910333845</v>
+      </c>
+      <c r="E19">
+        <v>1.451770487032332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>80.9698858842399</v>
+        <v>80.96988587276378</v>
       </c>
       <c r="C20">
-        <v>108.7305924227169</v>
+        <v>108.7305924173191</v>
       </c>
       <c r="D20">
-        <v>65.57417498805739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>65.57417498713149</v>
+      </c>
+      <c r="E20">
+        <v>1.054982232803321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>64.66235045483207</v>
+        <v>64.66235045509134</v>
       </c>
       <c r="C21">
-        <v>53.43413784529768</v>
+        <v>53.43413782533445</v>
       </c>
       <c r="D21">
-        <v>42.92087970685267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>42.92087970457293</v>
+      </c>
+      <c r="E21">
+        <v>1.383881174010967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>44.29245260144963</v>
+        <v>44.29245259943117</v>
       </c>
       <c r="C22">
-        <v>172.7843071018206</v>
+        <v>172.7843071018688</v>
       </c>
       <c r="D22">
-        <v>302.4423892934705</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>302.4423892963987</v>
+      </c>
+      <c r="E22">
+        <v>1.587247926814043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>85.01284704513016</v>
+        <v>85.01284703640208</v>
       </c>
       <c r="C23">
-        <v>70.14238479930737</v>
+        <v>70.14238479346641</v>
       </c>
       <c r="D23">
-        <v>61.50805911785599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>61.50805911565469</v>
+      </c>
+      <c r="E23">
+        <v>1.170336124328367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>62.06160569928933</v>
+        <v>62.061605681833</v>
       </c>
       <c r="C24">
-        <v>52.76774823617676</v>
+        <v>52.76774823821432</v>
       </c>
       <c r="D24">
-        <v>40.85984654462025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>40.85984654752865</v>
+      </c>
+      <c r="E24">
+        <v>1.393658878462195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>73.01146330072601</v>
+        <v>73.01146330099978</v>
       </c>
       <c r="C25">
-        <v>67.50910575525948</v>
+        <v>67.50910574761154</v>
       </c>
       <c r="D25">
-        <v>50.41300772805465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>50.41300772945139</v>
+      </c>
+      <c r="E25">
+        <v>1.391778821363778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>78.58829923857603</v>
+        <v>78.58829923326503</v>
       </c>
       <c r="C26">
-        <v>69.2345060735295</v>
+        <v>69.23450606834274</v>
       </c>
       <c r="D26">
-        <v>56.54946975746716</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>56.54946974689559</v>
+      </c>
+      <c r="E26">
+        <v>1.437324801969409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>71.38641632077719</v>
+        <v>71.38641632822747</v>
       </c>
       <c r="C27">
-        <v>70.75054087698172</v>
+        <v>70.75054087231349</v>
       </c>
       <c r="D27">
-        <v>70.19078729846773</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>70.19078729913981</v>
+      </c>
+      <c r="E27">
+        <v>1.38123772389932</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>61.9124611539152</v>
+        <v>61.91246116454113</v>
       </c>
       <c r="C28">
-        <v>75.01009946520038</v>
+        <v>75.01009946118768</v>
       </c>
       <c r="D28">
-        <v>55.79124181940526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>55.79124181449848</v>
+      </c>
+      <c r="E28">
+        <v>1.360397765023705</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>61.20675328079121</v>
+        <v>61.20675328079811</v>
       </c>
       <c r="C29">
-        <v>130.841870675439</v>
+        <v>130.8418706834458</v>
       </c>
       <c r="D29">
-        <v>217.8871436536449</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>217.8871436534264</v>
+      </c>
+      <c r="E29">
+        <v>1.541792325450749</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>60.51103969818725</v>
+        <v>60.51103969754429</v>
       </c>
       <c r="C30">
-        <v>54.69917355077082</v>
+        <v>54.69917355195221</v>
       </c>
       <c r="D30">
-        <v>44.11137287023177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>44.11137286955776</v>
+      </c>
+      <c r="E30">
+        <v>0.7916794467557454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>66.84907670214251</v>
+        <v>66.84907670854523</v>
       </c>
       <c r="C31">
-        <v>55.49678689479664</v>
+        <v>55.49678688512974</v>
       </c>
       <c r="D31">
-        <v>43.74461054020728</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>43.74461054057758</v>
+      </c>
+      <c r="E31">
+        <v>1.057748548602964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>112.2658094657632</v>
+        <v>112.2658094598435</v>
       </c>
       <c r="C32">
-        <v>93.1725083679647</v>
+        <v>93.17250837687325</v>
       </c>
       <c r="D32">
-        <v>70.01086819209874</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>70.01086819986799</v>
+      </c>
+      <c r="E32">
+        <v>1.502899729778177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>71.73761163822698</v>
+        <v>71.73761163713674</v>
       </c>
       <c r="C33">
-        <v>65.86284367140837</v>
+        <v>65.86284367508311</v>
       </c>
       <c r="D33">
-        <v>48.12701354193664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>48.12701354193393</v>
+      </c>
+      <c r="E33">
+        <v>1.190738179443567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>70.24314629259149</v>
+        <v>70.24314628712906</v>
       </c>
       <c r="C34">
-        <v>60.01447119296037</v>
+        <v>60.01447117427134</v>
       </c>
       <c r="D34">
-        <v>52.23720997479359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>52.23720996499354</v>
+      </c>
+      <c r="E34">
+        <v>1.190326411570992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>47.41498280487147</v>
+        <v>47.41498278794278</v>
       </c>
       <c r="C35">
-        <v>61.5012692186252</v>
+        <v>61.50126919917453</v>
       </c>
       <c r="D35">
-        <v>86.6495102452229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>86.6495102427041</v>
+      </c>
+      <c r="E35">
+        <v>1.391359282653288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>65.37713676586937</v>
+        <v>65.37713676357112</v>
       </c>
       <c r="C36">
-        <v>66.0609214517104</v>
+        <v>66.06092145028188</v>
       </c>
       <c r="D36">
-        <v>44.91507236648621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>44.91507236852337</v>
+      </c>
+      <c r="E36">
+        <v>1.437869293571946</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>99.24600584969299</v>
+        <v>99.24600588333628</v>
       </c>
       <c r="C37">
-        <v>80.02758936877184</v>
+        <v>80.02758937038988</v>
       </c>
       <c r="D37">
-        <v>61.91828511074937</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>61.91828512211021</v>
+      </c>
+      <c r="E37">
+        <v>1.398295213656907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38">
-        <v>51.42130080912482</v>
+        <v>51.42130081201189</v>
       </c>
       <c r="C38">
-        <v>57.98235123260719</v>
+        <v>57.98235123168653</v>
       </c>
       <c r="D38">
-        <v>42.68275547240027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>42.68275547097801</v>
+      </c>
+      <c r="E38">
+        <v>1.404087488341387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39">
-        <v>91.8872782970259</v>
+        <v>91.8872782859217</v>
       </c>
       <c r="C39">
-        <v>76.65426623924088</v>
+        <v>76.65426624784655</v>
       </c>
       <c r="D39">
-        <v>58.5034163371292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>58.50341632630208</v>
+      </c>
+      <c r="E39">
+        <v>1.424873014157481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>81.670145288662</v>
+        <v>81.67014529371153</v>
       </c>
       <c r="C40">
-        <v>66.14023603854152</v>
+        <v>66.14023603708438</v>
       </c>
       <c r="D40">
-        <v>56.33944391586104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>56.33944390702089</v>
+      </c>
+      <c r="E40">
+        <v>1.036980460193348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>88.96991466512718</v>
+        <v>88.96991466481646</v>
       </c>
       <c r="C41">
-        <v>76.3810926585607</v>
+        <v>76.38109265459917</v>
       </c>
       <c r="D41">
-        <v>71.85402484436426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>71.85402485104804</v>
+      </c>
+      <c r="E41">
+        <v>1.486781718009071</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B42">
-        <v>53.7314817229153</v>
+        <v>53.7314817340491</v>
       </c>
       <c r="C42">
-        <v>78.65426930298567</v>
+        <v>78.6542693196034</v>
       </c>
       <c r="D42">
-        <v>121.5456439829372</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>121.5456439967027</v>
+      </c>
+      <c r="E42">
+        <v>1.412742408929355</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>84.6483707679166</v>
+        <v>84.64837077067082</v>
       </c>
       <c r="C43">
-        <v>71.29518024603948</v>
+        <v>71.29518023818257</v>
       </c>
       <c r="D43">
-        <v>56.21844688387372</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>56.21844687262715</v>
+      </c>
+      <c r="E43">
+        <v>1.417930829536269</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>60.43365120910767</v>
+        <v>60.43365118851127</v>
       </c>
       <c r="C44">
-        <v>50.5145224576391</v>
+        <v>50.51452247483116</v>
       </c>
       <c r="D44">
-        <v>39.72372603185499</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>39.72372607691358</v>
+      </c>
+      <c r="E44">
+        <v>1.266335810522628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45">
-        <v>125.7932477361082</v>
+        <v>125.7932477156679</v>
       </c>
       <c r="C45">
-        <v>110.1091879358491</v>
+        <v>110.1091879518882</v>
       </c>
       <c r="D45">
-        <v>109.8665836183445</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>109.8665835958694</v>
+      </c>
+      <c r="E45">
+        <v>1.665784538920121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B46">
-        <v>69.71385525452021</v>
+        <v>69.71385523758755</v>
       </c>
       <c r="C46">
-        <v>164.2624528940391</v>
+        <v>164.2624528889328</v>
       </c>
       <c r="D46">
-        <v>307.3643201546022</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>307.36432014753</v>
+      </c>
+      <c r="E46">
+        <v>1.383356898763421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B47">
-        <v>44.21332436610204</v>
+        <v>44.2133243656924</v>
       </c>
       <c r="C47">
-        <v>78.68108969505248</v>
+        <v>78.68108967441373</v>
       </c>
       <c r="D47">
-        <v>63.2534688276417</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>63.25346889961215</v>
+      </c>
+      <c r="E47">
+        <v>1.310690580805937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>88.01123273838064</v>
+        <v>88.01123274181633</v>
       </c>
       <c r="C48">
-        <v>76.78407662757471</v>
+        <v>76.78407662252842</v>
       </c>
       <c r="D48">
-        <v>57.54710236704804</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>57.54710238990775</v>
+      </c>
+      <c r="E48">
+        <v>1.524478747971854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B49">
-        <v>91.44033866546944</v>
+        <v>91.44033878517391</v>
       </c>
       <c r="C49">
-        <v>70.15915544543492</v>
+        <v>70.15915544395918</v>
       </c>
       <c r="D49">
-        <v>58.15989420303804</v>
+        <v>58.15989421568737</v>
+      </c>
+      <c r="E49">
+        <v>0.9783105473866684</v>
       </c>
     </row>
   </sheetData>

--- a/prices.xlsx
+++ b/prices.xlsx
@@ -552,16 +552,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>82.04806456915593</v>
+        <v>82.37800575198999</v>
       </c>
       <c r="C2">
-        <v>327.3497551387292</v>
+        <v>327.3957702917789</v>
       </c>
       <c r="D2">
-        <v>116.4752951646654</v>
+        <v>116.60479638565</v>
       </c>
       <c r="E2">
-        <v>1.380868035393664</v>
+        <v>1.482218214946248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,16 +569,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>48.60033819929398</v>
+        <v>48.5183628361351</v>
       </c>
       <c r="C3">
-        <v>69.17022349195599</v>
+        <v>69.05464415262516</v>
       </c>
       <c r="D3">
-        <v>103.4639013228365</v>
+        <v>103.2913384595485</v>
       </c>
       <c r="E3">
-        <v>1.450414280157376</v>
+        <v>1.450042894603639</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -586,16 +586,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>87.6102516467644</v>
+        <v>90.20530572314721</v>
       </c>
       <c r="C4">
-        <v>75.76981663827823</v>
+        <v>77.53053351363546</v>
       </c>
       <c r="D4">
-        <v>56.67821971573601</v>
+        <v>58.08838187209336</v>
       </c>
       <c r="E4">
-        <v>1.34585290145282</v>
+        <v>1.449801222531999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>48.42128356501244</v>
+        <v>62.61115423730991</v>
       </c>
       <c r="C5">
-        <v>42.03236471926424</v>
+        <v>52.1595872340915</v>
       </c>
       <c r="D5">
-        <v>31.8432658972324</v>
+        <v>39.7310772536209</v>
       </c>
       <c r="E5">
-        <v>1.254578314349315</v>
+        <v>1.426676136456997</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,16 +620,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>52.8929639844588</v>
+        <v>53.05678067611147</v>
       </c>
       <c r="C6">
-        <v>109.7051555476158</v>
+        <v>109.8153520642302</v>
       </c>
       <c r="D6">
-        <v>191.0115180238443</v>
+        <v>191.0987129906125</v>
       </c>
       <c r="E6">
-        <v>1.269015585427002</v>
+        <v>1.269128795038656</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -637,16 +637,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>83.60063098093985</v>
+        <v>83.70730628628071</v>
       </c>
       <c r="C7">
-        <v>67.37803608001681</v>
+        <v>67.4098390066641</v>
       </c>
       <c r="D7">
-        <v>55.39636862217629</v>
+        <v>55.4264827649863</v>
       </c>
       <c r="E7">
-        <v>1.223823485316817</v>
+        <v>1.320147366358419</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -654,16 +654,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>82.68040676348892</v>
+        <v>83.30261160919505</v>
       </c>
       <c r="C8">
-        <v>99.72816849670903</v>
+        <v>100.1076345270848</v>
       </c>
       <c r="D8">
-        <v>115.6194152920906</v>
+        <v>115.9474884045717</v>
       </c>
       <c r="E8">
-        <v>1.161530650098613</v>
+        <v>1.263155646678681</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -671,16 +671,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>59.00896199696546</v>
+        <v>56.02432081074741</v>
       </c>
       <c r="C9">
-        <v>104.3363570807924</v>
+        <v>63.86702786877461</v>
       </c>
       <c r="D9">
-        <v>161.3917575401821</v>
+        <v>67.70252840325587</v>
       </c>
       <c r="E9">
-        <v>1.435739843255707</v>
+        <v>1.343163370121696</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>49.89261522907875</v>
+        <v>52.75207065623484</v>
       </c>
       <c r="C10">
-        <v>63.0941794406285</v>
+        <v>65.21332506469055</v>
       </c>
       <c r="D10">
-        <v>41.25690615890139</v>
+        <v>43.00627448355824</v>
       </c>
       <c r="E10">
-        <v>1.4117938933205</v>
+        <v>1.515944331056399</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -705,16 +705,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>78.14016481625417</v>
+        <v>81.39479469125172</v>
       </c>
       <c r="C11">
-        <v>68.92533762570977</v>
+        <v>71.19407398135886</v>
       </c>
       <c r="D11">
-        <v>66.94093785866185</v>
+        <v>68.72418274580936</v>
       </c>
       <c r="E11">
-        <v>1.30596207018998</v>
+        <v>1.41050886246162</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -722,16 +722,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>66.29728608382229</v>
+        <v>68.30565440369251</v>
       </c>
       <c r="C12">
-        <v>66.60919866973853</v>
+        <v>67.93717898342211</v>
       </c>
       <c r="D12">
-        <v>47.08654195276419</v>
+        <v>48.1740660239541</v>
       </c>
       <c r="E12">
-        <v>1.360050566271314</v>
+        <v>1.463470082286491</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -739,16 +739,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>76.95947381059675</v>
+        <v>76.14274394800955</v>
       </c>
       <c r="C13">
-        <v>63.29327080530929</v>
+        <v>62.70793458469672</v>
       </c>
       <c r="D13">
-        <v>51.9225875104278</v>
+        <v>51.47284224249076</v>
       </c>
       <c r="E13">
-        <v>1.430836547511826</v>
+        <v>1.530964590368309</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -756,16 +756,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>57.4533599137877</v>
+        <v>58.70324418908713</v>
       </c>
       <c r="C14">
-        <v>60.65088178049383</v>
+        <v>61.47249491968965</v>
       </c>
       <c r="D14">
-        <v>58.25619439339946</v>
+        <v>58.93200634767037</v>
       </c>
       <c r="E14">
-        <v>1.191026855726921</v>
+        <v>1.294281189424628</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -773,16 +773,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>66.69459924762178</v>
+        <v>66.81876691311857</v>
       </c>
       <c r="C15">
-        <v>64.31241493974863</v>
+        <v>64.33623065359119</v>
       </c>
       <c r="D15">
-        <v>45.77831202561789</v>
+        <v>45.83027126715709</v>
       </c>
       <c r="E15">
-        <v>1.322739589276495</v>
+        <v>1.423920075563369</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -790,16 +790,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>90.86081140330951</v>
+        <v>96.983318323985</v>
       </c>
       <c r="C16">
-        <v>81.13715613551038</v>
+        <v>85.53732610755672</v>
       </c>
       <c r="D16">
-        <v>78.22970015037319</v>
+        <v>81.68051959571132</v>
       </c>
       <c r="E16">
-        <v>1.522822227813987</v>
+        <v>1.63421588620249</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -807,16 +807,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>83.06906242785416</v>
+        <v>86.00579853707958</v>
       </c>
       <c r="C17">
-        <v>78.57399813646856</v>
+        <v>80.55314138638165</v>
       </c>
       <c r="D17">
-        <v>71.868471214359</v>
+        <v>73.39924361362421</v>
       </c>
       <c r="E17">
-        <v>1.340955335948286</v>
+        <v>1.444944793221512</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -824,16 +824,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>79.74539237949827</v>
+        <v>80.60725161354412</v>
       </c>
       <c r="C18">
-        <v>70.74230950975424</v>
+        <v>71.2157048816121</v>
       </c>
       <c r="D18">
-        <v>53.46568313964421</v>
+        <v>53.90683842207522</v>
       </c>
       <c r="E18">
-        <v>1.279964238946928</v>
+        <v>1.381687359888593</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -841,16 +841,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>76.73724638593237</v>
+        <v>86.00433721182782</v>
       </c>
       <c r="C19">
-        <v>63.63588594357215</v>
+        <v>69.76325414515347</v>
       </c>
       <c r="D19">
-        <v>52.76751910333845</v>
+        <v>57.15818117233878</v>
       </c>
       <c r="E19">
-        <v>1.451770487032332</v>
+        <v>1.562940692423122</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -858,16 +858,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>80.96988587276378</v>
+        <v>83.56675355663005</v>
       </c>
       <c r="C20">
-        <v>108.7305924173191</v>
+        <v>110.5189050234331</v>
       </c>
       <c r="D20">
-        <v>65.57417498713149</v>
+        <v>66.99222410736141</v>
       </c>
       <c r="E20">
-        <v>1.054982232803321</v>
+        <v>1.158645651490207</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -875,16 +875,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>64.66235045509134</v>
+        <v>70.00406292740939</v>
       </c>
       <c r="C21">
-        <v>53.43413782533445</v>
+        <v>57.23519470856752</v>
       </c>
       <c r="D21">
-        <v>42.92087970457293</v>
+        <v>45.86614733179181</v>
       </c>
       <c r="E21">
-        <v>1.383881174010967</v>
+        <v>1.411117410181882</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -892,16 +892,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>44.29245259943117</v>
+        <v>44.18950655538139</v>
       </c>
       <c r="C22">
-        <v>172.7843071018688</v>
+        <v>46.98579006254599</v>
       </c>
       <c r="D22">
-        <v>302.4423892963987</v>
+        <v>54.25872583554757</v>
       </c>
       <c r="E22">
-        <v>1.587247926814043</v>
+        <v>1.325827328406904</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -909,16 +909,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>85.01284703640208</v>
+        <v>85.28965603271605</v>
       </c>
       <c r="C23">
-        <v>70.14238479346641</v>
+        <v>70.3328794594717</v>
       </c>
       <c r="D23">
-        <v>61.50805911565469</v>
+        <v>61.65855129662842</v>
       </c>
       <c r="E23">
-        <v>1.170336124328367</v>
+        <v>1.271559383308549</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -926,16 +926,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>62.061605681833</v>
+        <v>62.05451816548106</v>
       </c>
       <c r="C24">
-        <v>52.76774823821432</v>
+        <v>52.74562044149374</v>
       </c>
       <c r="D24">
-        <v>40.85984654752865</v>
+        <v>40.8513708125065</v>
       </c>
       <c r="E24">
-        <v>1.393658878462195</v>
+        <v>1.393300619156374</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -943,16 +943,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>73.01146330099978</v>
+        <v>75.65485591771058</v>
       </c>
       <c r="C25">
-        <v>67.50910574761154</v>
+        <v>69.3189898294282</v>
       </c>
       <c r="D25">
-        <v>50.41300772945139</v>
+        <v>51.85398997933286</v>
       </c>
       <c r="E25">
-        <v>1.391778821363778</v>
+        <v>1.495884817907451</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -960,16 +960,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>78.58829923326503</v>
+        <v>78.49387191503384</v>
       </c>
       <c r="C26">
-        <v>69.23450606834274</v>
+        <v>68.92669967915865</v>
       </c>
       <c r="D26">
-        <v>56.54946974689559</v>
+        <v>56.43768608682075</v>
       </c>
       <c r="E26">
-        <v>1.437324801969409</v>
+        <v>1.436875646964025</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -977,16 +977,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>71.38641632822747</v>
+        <v>71.39392550177908</v>
       </c>
       <c r="C27">
-        <v>70.75054087231349</v>
+        <v>66.14832291091334</v>
       </c>
       <c r="D27">
-        <v>70.19078729913981</v>
+        <v>60.27888221488564</v>
       </c>
       <c r="E27">
-        <v>1.38123772389932</v>
+        <v>1.371945376334102</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -994,16 +994,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>61.91246116454113</v>
+        <v>64.6749953250614</v>
       </c>
       <c r="C28">
-        <v>75.01009946118768</v>
+        <v>76.7400828629021</v>
       </c>
       <c r="D28">
-        <v>55.79124181449848</v>
+        <v>57.26174183889409</v>
       </c>
       <c r="E28">
-        <v>1.360397765023705</v>
+        <v>1.464432571361002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1011,16 +1011,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>61.20675328079811</v>
+        <v>64.07824559197054</v>
       </c>
       <c r="C29">
-        <v>130.8418706834458</v>
+        <v>70.98858015846123</v>
       </c>
       <c r="D29">
-        <v>217.8871436534264</v>
+        <v>65.32931780861269</v>
       </c>
       <c r="E29">
-        <v>1.541792325450749</v>
+        <v>1.501875784750589</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1028,16 +1028,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>60.51103969754429</v>
+        <v>60.79094047785117</v>
       </c>
       <c r="C30">
-        <v>54.69917355195221</v>
+        <v>54.81327689160913</v>
       </c>
       <c r="D30">
-        <v>44.11137286955776</v>
+        <v>44.24887462343979</v>
       </c>
       <c r="E30">
-        <v>0.7916794467557454</v>
+        <v>0.8929398119726124</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1045,16 +1045,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>66.84907670854523</v>
+        <v>71.47248502875027</v>
       </c>
       <c r="C31">
-        <v>55.49678688512974</v>
+        <v>58.7846289702425</v>
       </c>
       <c r="D31">
-        <v>43.74461054057758</v>
+        <v>46.29412504718128</v>
       </c>
       <c r="E31">
-        <v>1.057748548602964</v>
+        <v>1.163320741567103</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1062,16 +1062,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>112.2658094598435</v>
+        <v>112.2307402290157</v>
       </c>
       <c r="C32">
-        <v>93.17250837687325</v>
+        <v>93.10955243926323</v>
       </c>
       <c r="D32">
-        <v>70.01086819986799</v>
+        <v>69.9811197100526</v>
       </c>
       <c r="E32">
-        <v>1.502899729778177</v>
+        <v>1.598865964520021</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1079,16 +1079,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>71.73761163713674</v>
+        <v>71.88518298450174</v>
       </c>
       <c r="C33">
-        <v>65.86284367508311</v>
+        <v>65.84277876773479</v>
       </c>
       <c r="D33">
-        <v>48.12701354193393</v>
+        <v>48.17800812327916</v>
       </c>
       <c r="E33">
-        <v>1.190738179443567</v>
+        <v>1.291804479606702</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1096,16 +1096,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>70.24314628712906</v>
+        <v>70.38164749568793</v>
       </c>
       <c r="C34">
-        <v>60.01447117427134</v>
+        <v>59.45317544873412</v>
       </c>
       <c r="D34">
-        <v>52.23720996499354</v>
+        <v>50.75501281737395</v>
       </c>
       <c r="E34">
-        <v>1.190326411570992</v>
+        <v>1.290057595870948</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1113,16 +1113,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>47.41498278794278</v>
+        <v>59.75164030174621</v>
       </c>
       <c r="C35">
-        <v>61.50126919917453</v>
+        <v>70.32835093131457</v>
       </c>
       <c r="D35">
-        <v>86.6495102427041</v>
+        <v>93.54928574346995</v>
       </c>
       <c r="E35">
-        <v>1.391359282653288</v>
+        <v>1.393768586258003</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1130,16 +1130,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>65.37713676357112</v>
+        <v>70.54255686733384</v>
       </c>
       <c r="C36">
-        <v>66.06092145028188</v>
+        <v>69.82832986679152</v>
       </c>
       <c r="D36">
-        <v>44.91507236852337</v>
+        <v>47.93575397410052</v>
       </c>
       <c r="E36">
-        <v>1.437869293571946</v>
+        <v>1.54461992426169</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1147,16 +1147,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>99.24600588333628</v>
+        <v>77.17334363847175</v>
       </c>
       <c r="C37">
-        <v>80.02758937038988</v>
+        <v>64.04815782127943</v>
       </c>
       <c r="D37">
-        <v>61.91828512211021</v>
+        <v>49.29956443873569</v>
       </c>
       <c r="E37">
-        <v>1.398295213656907</v>
+        <v>1.475599405462371</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1164,16 +1164,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>51.42130081201189</v>
+        <v>51.55354326978352</v>
       </c>
       <c r="C38">
-        <v>57.98235123168653</v>
+        <v>58.03633147103019</v>
       </c>
       <c r="D38">
-        <v>42.68275547097801</v>
+        <v>42.74709357594761</v>
       </c>
       <c r="E38">
-        <v>1.404087488341387</v>
+        <v>1.404214135670311</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1181,16 +1181,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>91.8872782859217</v>
+        <v>86.49903384897901</v>
       </c>
       <c r="C39">
-        <v>76.65426624784655</v>
+        <v>72.72091350864483</v>
       </c>
       <c r="D39">
-        <v>58.50341632630208</v>
+        <v>55.44227889346404</v>
       </c>
       <c r="E39">
-        <v>1.424873014157481</v>
+        <v>1.51897801246417</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1198,16 +1198,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>81.67014529371153</v>
+        <v>84.95477022677389</v>
       </c>
       <c r="C40">
-        <v>66.14023603708438</v>
+        <v>68.47048152255773</v>
       </c>
       <c r="D40">
-        <v>56.33944390702089</v>
+        <v>58.1494512697264</v>
       </c>
       <c r="E40">
-        <v>1.036980460193348</v>
+        <v>1.141449926318166</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1215,16 +1215,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>88.96991466481646</v>
+        <v>90.78127208763348</v>
       </c>
       <c r="C41">
-        <v>76.38109265459917</v>
+        <v>77.65734828569803</v>
       </c>
       <c r="D41">
-        <v>71.85402485104804</v>
+        <v>72.84962117838563</v>
       </c>
       <c r="E41">
-        <v>1.486781718009071</v>
+        <v>1.589790701858125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1232,16 +1232,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>53.7314817340491</v>
+        <v>56.38948418445379</v>
       </c>
       <c r="C42">
-        <v>78.6542693196034</v>
+        <v>80.53985747343911</v>
       </c>
       <c r="D42">
-        <v>121.5456439967027</v>
+        <v>123.0097610430451</v>
       </c>
       <c r="E42">
-        <v>1.412742408929355</v>
+        <v>1.516800831516246</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1249,16 +1249,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>84.64837077067082</v>
+        <v>84.69310892059993</v>
       </c>
       <c r="C43">
-        <v>71.29518023818257</v>
+        <v>71.22092459644836</v>
       </c>
       <c r="D43">
-        <v>56.21844687262715</v>
+        <v>56.21624561536198</v>
       </c>
       <c r="E43">
-        <v>1.417930829536269</v>
+        <v>1.416586980781991</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1266,16 +1266,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>60.43365118851127</v>
+        <v>60.21425068570822</v>
       </c>
       <c r="C44">
-        <v>50.51452247483116</v>
+        <v>50.336290738317</v>
       </c>
       <c r="D44">
-        <v>39.72372607691358</v>
+        <v>39.59478981816569</v>
       </c>
       <c r="E44">
-        <v>1.266335810522628</v>
+        <v>1.265477167145732</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1283,16 +1283,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>125.7932477156679</v>
+        <v>128.1637134807652</v>
       </c>
       <c r="C45">
-        <v>110.1091879518882</v>
+        <v>111.2036636808185</v>
       </c>
       <c r="D45">
-        <v>109.8665835958694</v>
+        <v>109.7646716301712</v>
       </c>
       <c r="E45">
-        <v>1.665784538920121</v>
+        <v>1.767989020768285</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1300,16 +1300,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>69.71385523758755</v>
+        <v>69.72008050435781</v>
       </c>
       <c r="C46">
-        <v>164.2624528889328</v>
+        <v>164.2655379155889</v>
       </c>
       <c r="D46">
-        <v>307.36432014753</v>
+        <v>307.3659505645021</v>
       </c>
       <c r="E46">
-        <v>1.383356898763421</v>
+        <v>1.383285639993427</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1317,16 +1317,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>44.2133243656924</v>
+        <v>44.19472945747075</v>
       </c>
       <c r="C47">
-        <v>78.68108967441373</v>
+        <v>78.63234828586985</v>
       </c>
       <c r="D47">
-        <v>63.25346889961215</v>
+        <v>63.23370345963275</v>
       </c>
       <c r="E47">
-        <v>1.310690580805937</v>
+        <v>1.310476440496371</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1334,16 +1334,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>88.01123274181633</v>
+        <v>88.40389234110366</v>
       </c>
       <c r="C48">
-        <v>76.78407662252842</v>
+        <v>77.04576427629839</v>
       </c>
       <c r="D48">
-        <v>57.54710238990775</v>
+        <v>57.75896925301112</v>
       </c>
       <c r="E48">
-        <v>1.524478747971854</v>
+        <v>1.524761242850143</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1351,16 +1351,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>91.44033878517391</v>
+        <v>91.44026861560458</v>
       </c>
       <c r="C49">
-        <v>70.15915544395918</v>
+        <v>70.15858123815372</v>
       </c>
       <c r="D49">
-        <v>58.15989421568737</v>
+        <v>58.15946669193969</v>
       </c>
       <c r="E49">
-        <v>0.9783105473866684</v>
+        <v>0.9782590782361614</v>
       </c>
     </row>
   </sheetData>
